--- a/result/on_device_training_result.xlsx
+++ b/result/on_device_training_result.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kch\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkcch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26048BC5-614C-42A8-BF4F-C620E1C6CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA526E-A78C-4729-88E3-19732D69D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{328DD47E-5E92-4019-B1A8-2AE1A0EAD3E9}"/>
+    <workbookView xWindow="225" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{328DD47E-5E92-4019-B1A8-2AE1A0EAD3E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t xml:space="preserve">오리지널 1500장 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +99,6 @@
     <t>V1 2000장</t>
   </si>
   <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">오리지널 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +138,10 @@
   </si>
   <si>
     <t>Galaxy Note20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2139,6 +2135,1873 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19318148530500243"/>
+          <c:y val="5.0355535009423559E-2"/>
+          <c:w val="0.78075319990454539"/>
+          <c:h val="0.77075637423989185"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>오리지널 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$N$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1500장</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000장</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500장</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000장</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$59:$O$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1035.5999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9BD-4B0B-95E8-DA4768B67E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$N$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1500장</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000장</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500장</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000장</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$59:$P$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>673.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1149.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1780.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2354.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9BD-4B0B-95E8-DA4768B67E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$59:$N$62</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1500장</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000장</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500장</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000장</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$59:$Q$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>683.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1052.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1618.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2198.1999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9BD-4B0B-95E8-DA4768B67E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1849105424"/>
+        <c:axId val="1849118320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1849105424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1849118320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1849118320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR"/>
+                  <a:t>단위</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>: ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1849105424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34476575081073946"/>
+          <c:y val="9.0632054336616794E-2"/>
+          <c:w val="0.45415210788027255"/>
+          <c:h val="0.10209639893256471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13777733652119242"/>
+          <c:y val="5.0231758188816755E-2"/>
+          <c:w val="0.8125715069977768"/>
+          <c:h val="0.78316411935774433"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>오리지널</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$80:$Q$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$80:$R$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.12842339999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1954176E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1923667500000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1924824000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1926181E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1922464E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1923790999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1933552000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1932447E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1915604E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DCB-47D2-8114-9985C1B981D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$80:$Q$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$80:$S$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.11972379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1928015999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1927801E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1927771E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1927659999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1927577E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1924789999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1927304E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1927304E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1927023E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DCB-47D2-8114-9985C1B981D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$80:$Q$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$80:$T$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.21503885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2514799000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1936003999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1935721E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1935458000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1935158000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1934833E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1934499999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1934154000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1933417000000001E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1DCB-47D2-8114-9985C1B981D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="104661167"/>
+        <c:axId val="104654511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104661167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104654511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104654511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1232858154049225E-2"/>
+              <c:y val="0.347113422572705"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104661167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20520039725448119"/>
+          <c:y val="0.11161265880687372"/>
+          <c:w val="0.69483661659924745"/>
+          <c:h val="0.11800741854739066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13777733652119242"/>
+          <c:y val="5.0231758188816755E-2"/>
+          <c:w val="0.8125715069977768"/>
+          <c:h val="0.78316411935774433"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$92:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$92:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1469399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0508730000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0455360000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0775585000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0668829999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0615462999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0455356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0455356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0455360000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0668844999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55ED-46DB-81D9-BC45CFE9A38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$92:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$92:$S$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98076240000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6502695E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0889061E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0759374E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6743540000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0674352999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0674355E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0674535400000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0674355E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.06974353E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55ED-46DB-81D9-BC45CFE9A38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="104661167"/>
+        <c:axId val="104654511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104661167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Epoch</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104654511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104654511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1232858154049225E-2"/>
+              <c:y val="0.347113422572705"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104661167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30516347336879168"/>
+          <c:y val="0.10755585956062133"/>
+          <c:w val="0.4964854506298817"/>
+          <c:h val="0.12983917510856213"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2256,6 +4119,123 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3276,6 +5256,1541 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3905,2661 +7420,121 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>401230</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>120687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DD344B-8282-481A-84CF-9616B808631F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>245014</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>170143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85625A17-0B13-4819-AB39-3399D4162517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>296969</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>155882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834CC9A3-8754-482D-BCA5-F2EE48E3CC6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Elapsed time"/>
-      <sheetName val="Elapsed time(tcmalloc)"/>
-      <sheetName val="통계"/>
-      <sheetName val="tf.data_memory"/>
-      <sheetName val="tf.data_memory_tcmalloc"/>
-      <sheetName val="numpy_memory"/>
-      <sheetName val="Numpy_memory_tcmalloc"/>
-      <sheetName val="oldata_memory"/>
-      <sheetName val="oldata_memory_tcmalloc"/>
-      <sheetName val="tf.data"/>
-      <sheetName val="ol.data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2606">
-          <cell r="B2606" t="str">
-            <v>Numpy</v>
-          </cell>
-          <cell r="C2606" t="str">
-            <v>tf.data</v>
-          </cell>
-          <cell r="D2606" t="str">
-            <v>ol.data</v>
-          </cell>
-          <cell r="J2606" t="str">
-            <v>Numpy</v>
-          </cell>
-          <cell r="K2606" t="str">
-            <v>tf.data</v>
-          </cell>
-          <cell r="L2606" t="str">
-            <v>ol.data</v>
-          </cell>
-        </row>
-        <row r="2607">
-          <cell r="A2607">
-            <v>0</v>
-          </cell>
-          <cell r="B2607">
-            <v>0.31016516599999999</v>
-          </cell>
-          <cell r="C2607">
-            <v>0.3028286</v>
-          </cell>
-          <cell r="D2607">
-            <v>0.30151590700000003</v>
-          </cell>
-          <cell r="I2607">
-            <v>0</v>
-          </cell>
-          <cell r="J2607">
-            <v>0.38467000000000001</v>
-          </cell>
-          <cell r="K2607">
-            <v>0.36439382999999997</v>
-          </cell>
-          <cell r="L2607">
-            <v>0.36692609999999998</v>
-          </cell>
-        </row>
-        <row r="2608">
-          <cell r="A2608">
-            <v>1</v>
-          </cell>
-          <cell r="B2608">
-            <v>0.28767704900000002</v>
-          </cell>
-          <cell r="C2608">
-            <v>0.28956999999999999</v>
-          </cell>
-          <cell r="D2608">
-            <v>0.28786259879999998</v>
-          </cell>
-          <cell r="I2608">
-            <v>1</v>
-          </cell>
-          <cell r="J2608">
-            <v>0.37640000000000001</v>
-          </cell>
-          <cell r="K2608">
-            <v>0.355962783</v>
-          </cell>
-          <cell r="L2608">
-            <v>0.35239579999999998</v>
-          </cell>
-        </row>
-        <row r="2609">
-          <cell r="A2609">
-            <v>2</v>
-          </cell>
-          <cell r="B2609">
-            <v>0.278073668</v>
-          </cell>
-          <cell r="C2609">
-            <v>0.27769130400000003</v>
-          </cell>
-          <cell r="D2609">
-            <v>0.278052091</v>
-          </cell>
-          <cell r="I2609">
-            <v>2</v>
-          </cell>
-          <cell r="J2609">
-            <v>0.36917</v>
-          </cell>
-          <cell r="K2609">
-            <v>0.34689572400000002</v>
-          </cell>
-          <cell r="L2609">
-            <v>0.34383219999999998</v>
-          </cell>
-        </row>
-        <row r="2610">
-          <cell r="A2610">
-            <v>3</v>
-          </cell>
-          <cell r="B2610">
-            <v>0.26990404000000001</v>
-          </cell>
-          <cell r="C2610">
-            <v>0.26980850000000001</v>
-          </cell>
-          <cell r="D2610">
-            <v>0.27084553</v>
-          </cell>
-          <cell r="I2610">
-            <v>3</v>
-          </cell>
-          <cell r="J2610">
-            <v>0.36730000000000002</v>
-          </cell>
-          <cell r="K2610">
-            <v>0.3422936499</v>
-          </cell>
-          <cell r="L2610">
-            <v>0.33834449999999999</v>
-          </cell>
-        </row>
-        <row r="2611">
-          <cell r="A2611">
-            <v>4</v>
-          </cell>
-          <cell r="B2611">
-            <v>0.26474260999999999</v>
-          </cell>
-          <cell r="C2611">
-            <v>0.26605233</v>
-          </cell>
-          <cell r="D2611">
-            <v>0.26711651600000003</v>
-          </cell>
-          <cell r="I2611">
-            <v>4</v>
-          </cell>
-          <cell r="J2611">
-            <v>0.36820000000000003</v>
-          </cell>
-          <cell r="K2611">
-            <v>0.33910480100000001</v>
-          </cell>
-          <cell r="L2611">
-            <v>0.33476699999999998</v>
-          </cell>
-        </row>
-        <row r="2612">
-          <cell r="A2612">
-            <v>5</v>
-          </cell>
-          <cell r="B2612">
-            <v>0.26206225100000002</v>
-          </cell>
-          <cell r="C2612">
-            <v>0.26275549999999998</v>
-          </cell>
-          <cell r="D2612">
-            <v>0.26425769900000001</v>
-          </cell>
-          <cell r="I2612">
-            <v>5</v>
-          </cell>
-          <cell r="J2612">
-            <v>0.37458000000000002</v>
-          </cell>
-          <cell r="K2612">
-            <v>0.33640748259999997</v>
-          </cell>
-          <cell r="L2612">
-            <v>0.33317550000000001</v>
-          </cell>
-        </row>
-        <row r="2613">
-          <cell r="A2613">
-            <v>6</v>
-          </cell>
-          <cell r="B2613">
-            <v>0.26557382000000002</v>
-          </cell>
-          <cell r="C2613">
-            <v>0.26449486</v>
-          </cell>
-          <cell r="D2613">
-            <v>0.26442751199999998</v>
-          </cell>
-          <cell r="I2613">
-            <v>6</v>
-          </cell>
-          <cell r="J2613">
-            <v>0.37551000000000001</v>
-          </cell>
-          <cell r="K2613">
-            <v>0.33518710699999998</v>
-          </cell>
-          <cell r="L2613">
-            <v>0.33373219999999998</v>
-          </cell>
-        </row>
-        <row r="2614">
-          <cell r="A2614">
-            <v>7</v>
-          </cell>
-          <cell r="B2614">
-            <v>0.26752701000000001</v>
-          </cell>
-          <cell r="C2614">
-            <v>0.26502350000000002</v>
-          </cell>
-          <cell r="D2614">
-            <v>0.264677196</v>
-          </cell>
-          <cell r="I2614">
-            <v>7</v>
-          </cell>
-          <cell r="J2614">
-            <v>0.37590000000000001</v>
-          </cell>
-          <cell r="K2614">
-            <v>0.33542990680000001</v>
-          </cell>
-          <cell r="L2614">
-            <v>0.334594</v>
-          </cell>
-        </row>
-        <row r="2615">
-          <cell r="A2615">
-            <v>8</v>
-          </cell>
-          <cell r="B2615">
-            <v>0.27067723799999999</v>
-          </cell>
-          <cell r="C2615">
-            <v>0.26783384999999998</v>
-          </cell>
-          <cell r="D2615">
-            <v>0.267713755</v>
-          </cell>
-          <cell r="I2615">
-            <v>8</v>
-          </cell>
-          <cell r="J2615">
-            <v>0.37525999999999998</v>
-          </cell>
-          <cell r="K2615">
-            <v>0.33684727548999999</v>
-          </cell>
-          <cell r="L2615">
-            <v>0.33641520000000003</v>
-          </cell>
-        </row>
-        <row r="2616">
-          <cell r="A2616">
-            <v>9</v>
-          </cell>
-          <cell r="B2616">
-            <v>0.27509119999999998</v>
-          </cell>
-          <cell r="C2616">
-            <v>0.27103699999999997</v>
-          </cell>
-          <cell r="D2616">
-            <v>0.27107861</v>
-          </cell>
-          <cell r="I2616">
-            <v>9</v>
-          </cell>
-          <cell r="J2616">
-            <v>0.375</v>
-          </cell>
-          <cell r="K2616">
-            <v>0.33905020299999999</v>
-          </cell>
-          <cell r="L2616">
-            <v>0.33968500000000001</v>
-          </cell>
-        </row>
-        <row r="2617">
-          <cell r="A2617">
-            <v>10</v>
-          </cell>
-          <cell r="B2617">
-            <v>0.28069329999999998</v>
-          </cell>
-          <cell r="C2617">
-            <v>0.27557999999999999</v>
-          </cell>
-          <cell r="D2617">
-            <v>0.27559869999999997</v>
-          </cell>
-          <cell r="I2617">
-            <v>10</v>
-          </cell>
-          <cell r="J2617">
-            <v>0.37667489999999998</v>
-          </cell>
-          <cell r="K2617">
-            <v>0.34219247000000003</v>
-          </cell>
-          <cell r="L2617">
-            <v>0.34326299999999998</v>
-          </cell>
-        </row>
-        <row r="2618">
-          <cell r="A2618">
-            <v>11</v>
-          </cell>
-          <cell r="B2618">
-            <v>0.286022901</v>
-          </cell>
-          <cell r="C2618">
-            <v>0.28101649000000001</v>
-          </cell>
-          <cell r="D2618">
-            <v>0.2820203</v>
-          </cell>
-          <cell r="I2618">
-            <v>11</v>
-          </cell>
-          <cell r="J2618">
-            <v>0.37741000000000002</v>
-          </cell>
-          <cell r="K2618">
-            <v>0.34604895099999999</v>
-          </cell>
-          <cell r="L2618">
-            <v>0.34787000000000001</v>
-          </cell>
-        </row>
-        <row r="2619">
-          <cell r="A2619">
-            <v>12</v>
-          </cell>
-          <cell r="B2619">
-            <v>0.29261480000000001</v>
-          </cell>
-          <cell r="C2619">
-            <v>0.28914139999999999</v>
-          </cell>
-          <cell r="D2619">
-            <v>0.2873868644</v>
-          </cell>
-          <cell r="I2619">
-            <v>12</v>
-          </cell>
-          <cell r="J2619">
-            <v>0.37940000000000002</v>
-          </cell>
-          <cell r="K2619">
-            <v>0.35076317000000001</v>
-          </cell>
-          <cell r="L2619">
-            <v>0.35294999999999999</v>
-          </cell>
-        </row>
-        <row r="2620">
-          <cell r="A2620">
-            <v>13</v>
-          </cell>
-          <cell r="B2620">
-            <v>0.29992580000000002</v>
-          </cell>
-          <cell r="C2620">
-            <v>0.2943402</v>
-          </cell>
-          <cell r="D2620">
-            <v>0.29431469999999998</v>
-          </cell>
-          <cell r="I2620">
-            <v>13</v>
-          </cell>
-          <cell r="J2620">
-            <v>0.38100000000000001</v>
-          </cell>
-          <cell r="K2620">
-            <v>0.35574202999999999</v>
-          </cell>
-          <cell r="L2620">
-            <v>0.35855199999999998</v>
-          </cell>
-        </row>
-        <row r="2621">
-          <cell r="A2621">
-            <v>14</v>
-          </cell>
-          <cell r="B2621">
-            <v>0.30877159999999998</v>
-          </cell>
-          <cell r="C2621">
-            <v>0.30224129999999999</v>
-          </cell>
-          <cell r="D2621">
-            <v>0.30081720000000001</v>
-          </cell>
-          <cell r="I2621">
-            <v>14</v>
-          </cell>
-          <cell r="J2621">
-            <v>0.38400000000000001</v>
-          </cell>
-          <cell r="K2621">
-            <v>0.36105027789999999</v>
-          </cell>
-          <cell r="L2621">
-            <v>0.3648479</v>
-          </cell>
-        </row>
-        <row r="2622">
-          <cell r="A2622">
-            <v>15</v>
-          </cell>
-          <cell r="B2622">
-            <v>0.31741269999999999</v>
-          </cell>
-          <cell r="C2622">
-            <v>0.310172</v>
-          </cell>
-          <cell r="D2622">
-            <v>0.3068881</v>
-          </cell>
-          <cell r="I2622">
-            <v>15</v>
-          </cell>
-          <cell r="J2622">
-            <v>0.38544</v>
-          </cell>
-          <cell r="K2622">
-            <v>0.36733725</v>
-          </cell>
-          <cell r="L2622">
-            <v>0.37206</v>
-          </cell>
-        </row>
-        <row r="2623">
-          <cell r="A2623">
-            <v>16</v>
-          </cell>
-          <cell r="B2623">
-            <v>0.3240132</v>
-          </cell>
-          <cell r="C2623">
-            <v>0.31756699999999999</v>
-          </cell>
-          <cell r="D2623">
-            <v>0.31246459999999998</v>
-          </cell>
-          <cell r="I2623">
-            <v>16</v>
-          </cell>
-          <cell r="J2623">
-            <v>0.38607000000000002</v>
-          </cell>
-          <cell r="K2623">
-            <v>0.37440389000000002</v>
-          </cell>
-          <cell r="L2623">
-            <v>0.37938</v>
-          </cell>
-        </row>
-        <row r="2624">
-          <cell r="A2624">
-            <v>17</v>
-          </cell>
-          <cell r="B2624">
-            <v>0.33160009000000001</v>
-          </cell>
-          <cell r="C2624">
-            <v>0.32479482879999999</v>
-          </cell>
-          <cell r="D2624">
-            <v>0.31900939</v>
-          </cell>
-          <cell r="I2624">
-            <v>17</v>
-          </cell>
-          <cell r="J2624">
-            <v>0.38700000000000001</v>
-          </cell>
-          <cell r="K2624">
-            <v>0.38185095000000002</v>
-          </cell>
-          <cell r="L2624">
-            <v>0.38686300000000001</v>
-          </cell>
-        </row>
-        <row r="2625">
-          <cell r="A2625">
-            <v>18</v>
-          </cell>
-          <cell r="B2625">
-            <v>0.33907609999999999</v>
-          </cell>
-          <cell r="C2625">
-            <v>0.332233</v>
-          </cell>
-          <cell r="D2625">
-            <v>0.32578020000000002</v>
-          </cell>
-          <cell r="I2625">
-            <v>18</v>
-          </cell>
-          <cell r="J2625">
-            <v>0.38800000000000001</v>
-          </cell>
-          <cell r="K2625">
-            <v>0.38952513999999999</v>
-          </cell>
-          <cell r="L2625">
-            <v>0.39517000000000002</v>
-          </cell>
-        </row>
-        <row r="2626">
-          <cell r="A2626">
-            <v>19</v>
-          </cell>
-          <cell r="B2626">
-            <v>0.34638941000000001</v>
-          </cell>
-          <cell r="C2626">
-            <v>0.33949499999999999</v>
-          </cell>
-          <cell r="D2626">
-            <v>0.33223970000000003</v>
-          </cell>
-          <cell r="I2626">
-            <v>19</v>
-          </cell>
-          <cell r="J2626">
-            <v>0.38900000000000001</v>
-          </cell>
-          <cell r="K2626">
-            <v>0.39782594999999998</v>
-          </cell>
-          <cell r="L2626">
-            <v>0.40361999999999998</v>
-          </cell>
-        </row>
-        <row r="2627">
-          <cell r="A2627">
-            <v>20</v>
-          </cell>
-          <cell r="B2627">
-            <v>0.35436109999999998</v>
-          </cell>
-          <cell r="C2627">
-            <v>0.34739999999999999</v>
-          </cell>
-          <cell r="D2627">
-            <v>0.34006169000000003</v>
-          </cell>
-          <cell r="I2627">
-            <v>20</v>
-          </cell>
-          <cell r="J2627">
-            <v>0.39040000000000002</v>
-          </cell>
-          <cell r="K2627">
-            <v>0.40618433999999998</v>
-          </cell>
-          <cell r="L2627">
-            <v>0.41193099999999999</v>
-          </cell>
-        </row>
-        <row r="2628">
-          <cell r="A2628">
-            <v>21</v>
-          </cell>
-          <cell r="B2628">
-            <v>0.36275039999999997</v>
-          </cell>
-          <cell r="C2628">
-            <v>0.35625200000000001</v>
-          </cell>
-          <cell r="D2628">
-            <v>0.34691092299999998</v>
-          </cell>
-          <cell r="I2628">
-            <v>21</v>
-          </cell>
-          <cell r="J2628">
-            <v>0.39090000000000003</v>
-          </cell>
-          <cell r="K2628">
-            <v>0.41498457999999999</v>
-          </cell>
-          <cell r="L2628">
-            <v>0.42036200000000001</v>
-          </cell>
-        </row>
-        <row r="2629">
-          <cell r="A2629">
-            <v>22</v>
-          </cell>
-          <cell r="B2629">
-            <v>0.37038789999999999</v>
-          </cell>
-          <cell r="C2629">
-            <v>0.36358439999999997</v>
-          </cell>
-          <cell r="D2629">
-            <v>0.35419539999999999</v>
-          </cell>
-          <cell r="I2629">
-            <v>22</v>
-          </cell>
-          <cell r="J2629">
-            <v>0.39200000000000002</v>
-          </cell>
-          <cell r="K2629">
-            <v>0.42409902799999999</v>
-          </cell>
-          <cell r="L2629">
-            <v>0.42951</v>
-          </cell>
-        </row>
-        <row r="2630">
-          <cell r="A2630">
-            <v>23</v>
-          </cell>
-          <cell r="B2630">
-            <v>0.37766499999999997</v>
-          </cell>
-          <cell r="C2630">
-            <v>0.370672</v>
-          </cell>
-          <cell r="D2630">
-            <v>0.36249139000000002</v>
-          </cell>
-          <cell r="I2630">
-            <v>23</v>
-          </cell>
-          <cell r="J2630">
-            <v>0.39219999999999999</v>
-          </cell>
-          <cell r="K2630">
-            <v>0.43370014400000001</v>
-          </cell>
-          <cell r="L2630">
-            <v>0.43875500000000001</v>
-          </cell>
-        </row>
-        <row r="2631">
-          <cell r="A2631">
-            <v>24</v>
-          </cell>
-          <cell r="B2631">
-            <v>0.38550832000000002</v>
-          </cell>
-          <cell r="C2631">
-            <v>0.37844729999999999</v>
-          </cell>
-          <cell r="D2631">
-            <v>0.36958239999999998</v>
-          </cell>
-          <cell r="I2631">
-            <v>24</v>
-          </cell>
-          <cell r="J2631">
-            <v>0.39300000000000002</v>
-          </cell>
-          <cell r="K2631">
-            <v>0.44320860000000001</v>
-          </cell>
-          <cell r="L2631">
-            <v>0.44819999999999999</v>
-          </cell>
-        </row>
-        <row r="2632">
-          <cell r="A2632">
-            <v>25</v>
-          </cell>
-          <cell r="B2632">
-            <v>0.3925034</v>
-          </cell>
-          <cell r="C2632">
-            <v>0.38621040000000001</v>
-          </cell>
-          <cell r="D2632">
-            <v>0.37670229999999999</v>
-          </cell>
-          <cell r="I2632">
-            <v>25</v>
-          </cell>
-          <cell r="J2632">
-            <v>0.39328999999999997</v>
-          </cell>
-          <cell r="K2632">
-            <v>0.45269677000000003</v>
-          </cell>
-          <cell r="L2632">
-            <v>0.45809</v>
-          </cell>
-        </row>
-        <row r="2633">
-          <cell r="A2633">
-            <v>26</v>
-          </cell>
-          <cell r="B2633">
-            <v>0.39929019999999998</v>
-          </cell>
-          <cell r="C2633">
-            <v>0.39434900000000001</v>
-          </cell>
-          <cell r="D2633">
-            <v>0.38230609999999998</v>
-          </cell>
-          <cell r="I2633">
-            <v>26</v>
-          </cell>
-          <cell r="J2633">
-            <v>0.39300000000000002</v>
-          </cell>
-          <cell r="K2633">
-            <v>0.46228483300000001</v>
-          </cell>
-          <cell r="L2633">
-            <v>0.46799170000000001</v>
-          </cell>
-        </row>
-        <row r="2634">
-          <cell r="A2634">
-            <v>27</v>
-          </cell>
-          <cell r="B2634">
-            <v>0.40607529999999997</v>
-          </cell>
-          <cell r="C2634">
-            <v>0.401285</v>
-          </cell>
-          <cell r="D2634">
-            <v>0.38952744</v>
-          </cell>
-          <cell r="I2634">
-            <v>27</v>
-          </cell>
-          <cell r="J2634">
-            <v>0.39545999999999998</v>
-          </cell>
-          <cell r="K2634">
-            <v>0.47241010999999999</v>
-          </cell>
-          <cell r="L2634">
-            <v>0.47832000000000002</v>
-          </cell>
-        </row>
-        <row r="2635">
-          <cell r="A2635">
-            <v>28</v>
-          </cell>
-          <cell r="B2635">
-            <v>0.41300480000000001</v>
-          </cell>
-          <cell r="C2635">
-            <v>0.40774690000000002</v>
-          </cell>
-          <cell r="D2635">
-            <v>0.39566794</v>
-          </cell>
-          <cell r="I2635">
-            <v>28</v>
-          </cell>
-          <cell r="J2635">
-            <v>0.3967</v>
-          </cell>
-          <cell r="K2635">
-            <v>0.48260956999999999</v>
-          </cell>
-          <cell r="L2635">
-            <v>0.48820000000000002</v>
-          </cell>
-        </row>
-        <row r="2636">
-          <cell r="A2636">
-            <v>29</v>
-          </cell>
-          <cell r="B2636">
-            <v>0.41921257899999997</v>
-          </cell>
-          <cell r="C2636">
-            <v>0.41419</v>
-          </cell>
-          <cell r="D2636">
-            <v>0.40193889999999999</v>
-          </cell>
-          <cell r="I2636">
-            <v>29</v>
-          </cell>
-          <cell r="J2636">
-            <v>0.39700000000000002</v>
-          </cell>
-          <cell r="K2636">
-            <v>0.49301609299999999</v>
-          </cell>
-          <cell r="L2636">
-            <v>0.4985</v>
-          </cell>
-        </row>
-        <row r="2637">
-          <cell r="A2637">
-            <v>30</v>
-          </cell>
-          <cell r="B2637">
-            <v>0.4252957</v>
-          </cell>
-          <cell r="C2637">
-            <v>0.42024</v>
-          </cell>
-          <cell r="D2637">
-            <v>0.40782275000000001</v>
-          </cell>
-          <cell r="I2637">
-            <v>30</v>
-          </cell>
-          <cell r="J2637">
-            <v>0.39710000000000001</v>
-          </cell>
-          <cell r="K2637">
-            <v>0.50291246000000001</v>
-          </cell>
-          <cell r="L2637">
-            <v>0.50831999999999999</v>
-          </cell>
-        </row>
-        <row r="2638">
-          <cell r="A2638">
-            <v>31</v>
-          </cell>
-          <cell r="B2638">
-            <v>0.43142079999999999</v>
-          </cell>
-          <cell r="C2638">
-            <v>0.42657699999999998</v>
-          </cell>
-          <cell r="D2638">
-            <v>0.41456425099999999</v>
-          </cell>
-          <cell r="I2638">
-            <v>31</v>
-          </cell>
-          <cell r="J2638">
-            <v>0.39700000000000002</v>
-          </cell>
-          <cell r="K2638">
-            <v>0.51316970500000003</v>
-          </cell>
-          <cell r="L2638">
-            <v>0.51841000000000004</v>
-          </cell>
-        </row>
-        <row r="2639">
-          <cell r="A2639">
-            <v>32</v>
-          </cell>
-          <cell r="B2639">
-            <v>0.43717460000000002</v>
-          </cell>
-          <cell r="C2639">
-            <v>0.43252962</v>
-          </cell>
-          <cell r="D2639">
-            <v>0.42179339999999999</v>
-          </cell>
-          <cell r="I2639">
-            <v>32</v>
-          </cell>
-          <cell r="J2639">
-            <v>0.39900000000000002</v>
-          </cell>
-          <cell r="K2639">
-            <v>0.52398639899999999</v>
-          </cell>
-          <cell r="L2639">
-            <v>0.52856000000000003</v>
-          </cell>
-        </row>
-        <row r="2640">
-          <cell r="A2640">
-            <v>33</v>
-          </cell>
-          <cell r="B2640">
-            <v>0.44314969999999998</v>
-          </cell>
-          <cell r="C2640">
-            <v>0.438913</v>
-          </cell>
-          <cell r="D2640">
-            <v>0.427597373</v>
-          </cell>
-          <cell r="I2640">
-            <v>33</v>
-          </cell>
-          <cell r="J2640">
-            <v>0.40050000000000002</v>
-          </cell>
-          <cell r="K2640">
-            <v>0.53517872</v>
-          </cell>
-          <cell r="L2640">
-            <v>0.53893000000000002</v>
-          </cell>
-        </row>
-        <row r="2641">
-          <cell r="A2641">
-            <v>34</v>
-          </cell>
-          <cell r="B2641">
-            <v>0.44834940000000001</v>
-          </cell>
-          <cell r="C2641">
-            <v>0.44469999999999998</v>
-          </cell>
-          <cell r="D2641">
-            <v>0.43323620000000002</v>
-          </cell>
-          <cell r="I2641">
-            <v>34</v>
-          </cell>
-          <cell r="J2641">
-            <v>0.4007</v>
-          </cell>
-          <cell r="K2641">
-            <v>0.54614162440000003</v>
-          </cell>
-          <cell r="L2641">
-            <v>0.54927999999999999</v>
-          </cell>
-        </row>
-        <row r="2642">
-          <cell r="A2642">
-            <v>35</v>
-          </cell>
-          <cell r="B2642">
-            <v>0.45535038999999999</v>
-          </cell>
-          <cell r="C2642">
-            <v>0.45087969999999999</v>
-          </cell>
-          <cell r="D2642">
-            <v>0.43955860000000002</v>
-          </cell>
-          <cell r="I2642">
-            <v>35</v>
-          </cell>
-          <cell r="J2642">
-            <v>0.40200000000000002</v>
-          </cell>
-          <cell r="K2642">
-            <v>0.55673353999999997</v>
-          </cell>
-          <cell r="L2642">
-            <v>0.55966000000000005</v>
-          </cell>
-        </row>
-        <row r="2643">
-          <cell r="A2643">
-            <v>36</v>
-          </cell>
-          <cell r="B2643">
-            <v>0.46071089999999998</v>
-          </cell>
-          <cell r="C2643">
-            <v>0.45641999999999999</v>
-          </cell>
-          <cell r="D2643">
-            <v>0.44493897999999998</v>
-          </cell>
-          <cell r="I2643">
-            <v>36</v>
-          </cell>
-          <cell r="J2643">
-            <v>0.40260000000000001</v>
-          </cell>
-          <cell r="K2643">
-            <v>0.56775975199999995</v>
-          </cell>
-          <cell r="L2643">
-            <v>0.57037899999999997</v>
-          </cell>
-        </row>
-        <row r="2644">
-          <cell r="A2644">
-            <v>37</v>
-          </cell>
-          <cell r="B2644">
-            <v>0.4652983</v>
-          </cell>
-          <cell r="C2644">
-            <v>0.46207680000000001</v>
-          </cell>
-          <cell r="D2644">
-            <v>0.45011289999999998</v>
-          </cell>
-          <cell r="I2644">
-            <v>37</v>
-          </cell>
-          <cell r="J2644">
-            <v>0.40368999999999999</v>
-          </cell>
-          <cell r="K2644">
-            <v>0.57848363999999997</v>
-          </cell>
-          <cell r="L2644">
-            <v>0.5808219</v>
-          </cell>
-        </row>
-        <row r="2645">
-          <cell r="A2645">
-            <v>38</v>
-          </cell>
-          <cell r="B2645">
-            <v>0.46953850000000003</v>
-          </cell>
-          <cell r="C2645">
-            <v>0.46779100000000001</v>
-          </cell>
-          <cell r="D2645">
-            <v>0.45482630000000002</v>
-          </cell>
-          <cell r="I2645">
-            <v>38</v>
-          </cell>
-          <cell r="J2645">
-            <v>0.40429999999999999</v>
-          </cell>
-          <cell r="K2645">
-            <v>0.58963571999999997</v>
-          </cell>
-          <cell r="L2645">
-            <v>0.59114</v>
-          </cell>
-        </row>
-        <row r="2646">
-          <cell r="A2646">
-            <v>39</v>
-          </cell>
-          <cell r="B2646">
-            <v>0.47431069999999997</v>
-          </cell>
-          <cell r="C2646">
-            <v>0.47349000000000002</v>
-          </cell>
-          <cell r="D2646">
-            <v>0.45929500000000001</v>
-          </cell>
-          <cell r="I2646">
-            <v>39</v>
-          </cell>
-          <cell r="J2646">
-            <v>0.40500000000000003</v>
-          </cell>
-          <cell r="K2646">
-            <v>0.60089164900000003</v>
-          </cell>
-          <cell r="L2646">
-            <v>0.60146299999999997</v>
-          </cell>
-        </row>
-        <row r="2647">
-          <cell r="A2647">
-            <v>40</v>
-          </cell>
-          <cell r="B2647">
-            <v>0.47931614</v>
-          </cell>
-          <cell r="C2647">
-            <v>0.47913899999999998</v>
-          </cell>
-          <cell r="D2647">
-            <v>0.46397447586000001</v>
-          </cell>
-          <cell r="I2647">
-            <v>40</v>
-          </cell>
-          <cell r="J2647">
-            <v>0.40639999999999998</v>
-          </cell>
-          <cell r="K2647">
-            <v>0.61228143999999995</v>
-          </cell>
-          <cell r="L2647">
-            <v>0.61246999999999996</v>
-          </cell>
-        </row>
-        <row r="2648">
-          <cell r="A2648">
-            <v>41</v>
-          </cell>
-          <cell r="B2648">
-            <v>0.4841337</v>
-          </cell>
-          <cell r="C2648">
-            <v>0.485346</v>
-          </cell>
-          <cell r="D2648">
-            <v>0.46844530000000001</v>
-          </cell>
-          <cell r="I2648">
-            <v>41</v>
-          </cell>
-          <cell r="J2648">
-            <v>0.40689999999999998</v>
-          </cell>
-          <cell r="K2648">
-            <v>0.62356734199999997</v>
-          </cell>
-          <cell r="L2648">
-            <v>0.62327999999999995</v>
-          </cell>
-        </row>
-        <row r="2649">
-          <cell r="A2649">
-            <v>42</v>
-          </cell>
-          <cell r="B2649">
-            <v>0.48920493999999998</v>
-          </cell>
-          <cell r="C2649">
-            <v>0.49020999999999998</v>
-          </cell>
-          <cell r="D2649">
-            <v>0.47411350000000002</v>
-          </cell>
-          <cell r="I2649">
-            <v>42</v>
-          </cell>
-          <cell r="J2649">
-            <v>0.40699999999999997</v>
-          </cell>
-          <cell r="K2649">
-            <v>0.63486593000000002</v>
-          </cell>
-          <cell r="L2649">
-            <v>0.63390000000000002</v>
-          </cell>
-        </row>
-        <row r="2650">
-          <cell r="A2650">
-            <v>43</v>
-          </cell>
-          <cell r="B2650">
-            <v>0.49408849999999999</v>
-          </cell>
-          <cell r="C2650">
-            <v>0.49551200000000001</v>
-          </cell>
-          <cell r="D2650">
-            <v>0.47900280000000001</v>
-          </cell>
-          <cell r="I2650">
-            <v>43</v>
-          </cell>
-          <cell r="J2650">
-            <v>0.4073</v>
-          </cell>
-          <cell r="K2650">
-            <v>0.64624243000000003</v>
-          </cell>
-          <cell r="L2650">
-            <v>0.64468800000000004</v>
-          </cell>
-        </row>
-        <row r="2651">
-          <cell r="A2651">
-            <v>44</v>
-          </cell>
-          <cell r="B2651">
-            <v>0.499168</v>
-          </cell>
-          <cell r="C2651">
-            <v>0.50085800000000003</v>
-          </cell>
-          <cell r="D2651">
-            <v>0.48335250000000002</v>
-          </cell>
-          <cell r="I2651">
-            <v>44</v>
-          </cell>
-          <cell r="J2651">
-            <v>0.40699999999999997</v>
-          </cell>
-          <cell r="K2651">
-            <v>0.6576933264</v>
-          </cell>
-          <cell r="L2651">
-            <v>0.65547999999999995</v>
-          </cell>
-        </row>
-        <row r="2652">
-          <cell r="A2652">
-            <v>45</v>
-          </cell>
-          <cell r="B2652">
-            <v>0.50430560000000002</v>
-          </cell>
-          <cell r="C2652">
-            <v>0.50560499999999997</v>
-          </cell>
-          <cell r="D2652">
-            <v>0.48766353000000001</v>
-          </cell>
-          <cell r="I2652">
-            <v>45</v>
-          </cell>
-          <cell r="J2652">
-            <v>0.4078</v>
-          </cell>
-          <cell r="K2652">
-            <v>0.66904407700000001</v>
-          </cell>
-          <cell r="L2652">
-            <v>0.66652699999999998</v>
-          </cell>
-        </row>
-        <row r="2653">
-          <cell r="A2653">
-            <v>46</v>
-          </cell>
-          <cell r="B2653">
-            <v>0.50944599999999995</v>
-          </cell>
-          <cell r="C2653">
-            <v>0.51103589999999999</v>
-          </cell>
-          <cell r="D2653">
-            <v>0.49223850000000002</v>
-          </cell>
-          <cell r="I2653">
-            <v>46</v>
-          </cell>
-          <cell r="J2653">
-            <v>0.40849999999999997</v>
-          </cell>
-          <cell r="K2653">
-            <v>0.68038456999999997</v>
-          </cell>
-          <cell r="L2653">
-            <v>0.67771999999999999</v>
-          </cell>
-        </row>
-        <row r="2654">
-          <cell r="A2654">
-            <v>47</v>
-          </cell>
-          <cell r="B2654">
-            <v>0.51457949999999997</v>
-          </cell>
-          <cell r="C2654">
-            <v>0.51660300000000003</v>
-          </cell>
-          <cell r="D2654">
-            <v>0.4970618</v>
-          </cell>
-          <cell r="I2654">
-            <v>47</v>
-          </cell>
-          <cell r="J2654">
-            <v>0.40899999999999997</v>
-          </cell>
-          <cell r="K2654">
-            <v>0.69230913999999999</v>
-          </cell>
-          <cell r="L2654">
-            <v>0.68883000000000005</v>
-          </cell>
-        </row>
-        <row r="2655">
-          <cell r="A2655">
-            <v>48</v>
-          </cell>
-          <cell r="B2655">
-            <v>0.51965700000000004</v>
-          </cell>
-          <cell r="C2655">
-            <v>0.52127100000000004</v>
-          </cell>
-          <cell r="D2655">
-            <v>0.50142810000000004</v>
-          </cell>
-          <cell r="I2655">
-            <v>48</v>
-          </cell>
-          <cell r="J2655">
-            <v>0.41006999999999999</v>
-          </cell>
-          <cell r="K2655">
-            <v>0.70363765</v>
-          </cell>
-          <cell r="L2655">
-            <v>0.70005815999999998</v>
-          </cell>
-        </row>
-        <row r="2656">
-          <cell r="A2656">
-            <v>49</v>
-          </cell>
-          <cell r="B2656">
-            <v>0.52476339999999999</v>
-          </cell>
-          <cell r="C2656">
-            <v>0.52641039999999995</v>
-          </cell>
-          <cell r="D2656">
-            <v>0.50663789999999997</v>
-          </cell>
-          <cell r="I2656">
-            <v>49</v>
-          </cell>
-          <cell r="J2656">
-            <v>0.41020000000000001</v>
-          </cell>
-          <cell r="K2656">
-            <v>0.71561485528900004</v>
-          </cell>
-          <cell r="L2656">
-            <v>0.71099999999999997</v>
-          </cell>
-        </row>
-        <row r="2657">
-          <cell r="A2657">
-            <v>50</v>
-          </cell>
-          <cell r="B2657">
-            <v>0.52981685999999995</v>
-          </cell>
-          <cell r="C2657">
-            <v>0.53059000000000001</v>
-          </cell>
-          <cell r="D2657">
-            <v>0.51130149999999996</v>
-          </cell>
-          <cell r="I2657">
-            <v>50</v>
-          </cell>
-          <cell r="J2657">
-            <v>0.41</v>
-          </cell>
-          <cell r="K2657">
-            <v>0.72748643000000002</v>
-          </cell>
-          <cell r="L2657">
-            <v>0.72236599999999995</v>
-          </cell>
-        </row>
-        <row r="2658">
-          <cell r="A2658">
-            <v>51</v>
-          </cell>
-          <cell r="B2658">
-            <v>0.53487110000000004</v>
-          </cell>
-          <cell r="C2658">
-            <v>0.53529899999999997</v>
-          </cell>
-          <cell r="D2658">
-            <v>0.51564120999999996</v>
-          </cell>
-          <cell r="I2658">
-            <v>51</v>
-          </cell>
-          <cell r="J2658">
-            <v>0.41099999999999998</v>
-          </cell>
-          <cell r="K2658">
-            <v>0.73944597999999995</v>
-          </cell>
-          <cell r="L2658">
-            <v>0.73375500000000005</v>
-          </cell>
-        </row>
-        <row r="2659">
-          <cell r="A2659">
-            <v>52</v>
-          </cell>
-          <cell r="B2659">
-            <v>0.5399022</v>
-          </cell>
-          <cell r="C2659">
-            <v>0.53946000000000005</v>
-          </cell>
-          <cell r="D2659">
-            <v>0.52011249999999998</v>
-          </cell>
-          <cell r="I2659">
-            <v>52</v>
-          </cell>
-          <cell r="J2659">
-            <v>0.41099999999999998</v>
-          </cell>
-          <cell r="K2659">
-            <v>0.75097912</v>
-          </cell>
-          <cell r="L2659">
-            <v>0.74494000000000005</v>
-          </cell>
-        </row>
-        <row r="2660">
-          <cell r="A2660">
-            <v>53</v>
-          </cell>
-          <cell r="B2660">
-            <v>0.54488460000000005</v>
-          </cell>
-          <cell r="C2660">
-            <v>0.54355500000000001</v>
-          </cell>
-          <cell r="D2660">
-            <v>0.523366</v>
-          </cell>
-          <cell r="I2660">
-            <v>53</v>
-          </cell>
-          <cell r="J2660">
-            <v>0.41099999999999998</v>
-          </cell>
-          <cell r="K2660">
-            <v>0.76252794000000002</v>
-          </cell>
-          <cell r="L2660">
-            <v>0.75639000000000001</v>
-          </cell>
-        </row>
-        <row r="2661">
-          <cell r="A2661">
-            <v>54</v>
-          </cell>
-          <cell r="B2661">
-            <v>0.54987359999999996</v>
-          </cell>
-          <cell r="C2661">
-            <v>0.547481</v>
-          </cell>
-          <cell r="D2661">
-            <v>0.52784679999999995</v>
-          </cell>
-          <cell r="I2661">
-            <v>54</v>
-          </cell>
-          <cell r="J2661">
-            <v>0.41310000000000002</v>
-          </cell>
-          <cell r="K2661">
-            <v>0.77385169200000004</v>
-          </cell>
-          <cell r="L2661">
-            <v>0.76759999999999995</v>
-          </cell>
-        </row>
-        <row r="2662">
-          <cell r="A2662">
-            <v>55</v>
-          </cell>
-          <cell r="B2662">
-            <v>0.55478554000000002</v>
-          </cell>
-          <cell r="C2662">
-            <v>0.55166789999999999</v>
-          </cell>
-          <cell r="D2662">
-            <v>0.53191449999999996</v>
-          </cell>
-          <cell r="I2662">
-            <v>55</v>
-          </cell>
-          <cell r="J2662">
-            <v>0.41363</v>
-          </cell>
-          <cell r="K2662">
-            <v>0.78512804999999997</v>
-          </cell>
-          <cell r="L2662">
-            <v>0.77968000000000004</v>
-          </cell>
-        </row>
-        <row r="2663">
-          <cell r="A2663">
-            <v>56</v>
-          </cell>
-          <cell r="B2663">
-            <v>0.559701</v>
-          </cell>
-          <cell r="C2663">
-            <v>0.55559336999999998</v>
-          </cell>
-          <cell r="D2663">
-            <v>0.53706050000000005</v>
-          </cell>
-          <cell r="I2663">
-            <v>56</v>
-          </cell>
-          <cell r="J2663">
-            <v>0.41399999999999998</v>
-          </cell>
-          <cell r="K2663">
-            <v>0.79697382449999998</v>
-          </cell>
-          <cell r="L2663">
-            <v>0.79098000000000002</v>
-          </cell>
-        </row>
-        <row r="2664">
-          <cell r="A2664">
-            <v>57</v>
-          </cell>
-          <cell r="B2664">
-            <v>0.5646253</v>
-          </cell>
-          <cell r="C2664">
-            <v>0.55943500000000002</v>
-          </cell>
-          <cell r="D2664">
-            <v>0.54131530000000005</v>
-          </cell>
-          <cell r="I2664">
-            <v>57</v>
-          </cell>
-          <cell r="J2664">
-            <v>0.41449999999999998</v>
-          </cell>
-          <cell r="K2664">
-            <v>0.80902415000000005</v>
-          </cell>
-          <cell r="L2664">
-            <v>0.80264000000000002</v>
-          </cell>
-        </row>
-        <row r="2665">
-          <cell r="A2665">
-            <v>58</v>
-          </cell>
-          <cell r="B2665">
-            <v>0.56959992599999998</v>
-          </cell>
-          <cell r="C2665">
-            <v>0.5635</v>
-          </cell>
-          <cell r="D2665">
-            <v>0.54607799999999995</v>
-          </cell>
-          <cell r="I2665">
-            <v>58</v>
-          </cell>
-          <cell r="J2665">
-            <v>0.41510000000000002</v>
-          </cell>
-          <cell r="K2665">
-            <v>0.82040380999999996</v>
-          </cell>
-          <cell r="L2665">
-            <v>0.81445999999999996</v>
-          </cell>
-        </row>
-        <row r="2666">
-          <cell r="A2666">
-            <v>59</v>
-          </cell>
-          <cell r="B2666">
-            <v>0.57453140000000003</v>
-          </cell>
-          <cell r="C2666">
-            <v>0.56724200000000002</v>
-          </cell>
-          <cell r="D2666">
-            <v>0.55114132000000005</v>
-          </cell>
-          <cell r="I2666">
-            <v>59</v>
-          </cell>
-          <cell r="J2666">
-            <v>0.41499999999999998</v>
-          </cell>
-          <cell r="K2666">
-            <v>0.83216363000000004</v>
-          </cell>
-          <cell r="L2666">
-            <v>0.82606999999999997</v>
-          </cell>
-        </row>
-        <row r="2667">
-          <cell r="A2667">
-            <v>60</v>
-          </cell>
-          <cell r="B2667">
-            <v>0.57947669999999996</v>
-          </cell>
-          <cell r="C2667">
-            <v>0.57103872299000002</v>
-          </cell>
-          <cell r="D2667">
-            <v>0.55501334999999996</v>
-          </cell>
-          <cell r="I2667">
-            <v>60</v>
-          </cell>
-          <cell r="J2667">
-            <v>0.41639999999999999</v>
-          </cell>
-          <cell r="K2667">
-            <v>0.84421597999999998</v>
-          </cell>
-          <cell r="L2667">
-            <v>0.8375146389</v>
-          </cell>
-        </row>
-        <row r="2668">
-          <cell r="A2668">
-            <v>61</v>
-          </cell>
-          <cell r="B2668">
-            <v>0.58439808999999998</v>
-          </cell>
-          <cell r="C2668">
-            <v>0.57455000000000001</v>
-          </cell>
-          <cell r="D2668">
-            <v>0.55920110000000001</v>
-          </cell>
-          <cell r="I2668">
-            <v>61</v>
-          </cell>
-          <cell r="J2668">
-            <v>0.4168</v>
-          </cell>
-          <cell r="K2668">
-            <v>0.85621141999999995</v>
-          </cell>
-          <cell r="L2668">
-            <v>0.84874300000000003</v>
-          </cell>
-        </row>
-        <row r="2669">
-          <cell r="A2669">
-            <v>62</v>
-          </cell>
-          <cell r="B2669">
-            <v>0.5892809</v>
-          </cell>
-          <cell r="C2669">
-            <v>0.57787109999999997</v>
-          </cell>
-          <cell r="D2669">
-            <v>0.56318080000000004</v>
-          </cell>
-          <cell r="I2669">
-            <v>62</v>
-          </cell>
-          <cell r="J2669">
-            <v>0.41699999999999998</v>
-          </cell>
-          <cell r="K2669">
-            <v>0.8682103753</v>
-          </cell>
-          <cell r="L2669">
-            <v>0.86024900000000004</v>
-          </cell>
-        </row>
-        <row r="2670">
-          <cell r="A2670">
-            <v>63</v>
-          </cell>
-          <cell r="B2670">
-            <v>0.59421694000000003</v>
-          </cell>
-          <cell r="C2670">
-            <v>0.58165299999999998</v>
-          </cell>
-          <cell r="D2670">
-            <v>0.56734989999999996</v>
-          </cell>
-          <cell r="I2670">
-            <v>63</v>
-          </cell>
-          <cell r="J2670">
-            <v>0.42470000000000002</v>
-          </cell>
-          <cell r="K2670">
-            <v>0.87952387300000001</v>
-          </cell>
-          <cell r="L2670">
-            <v>0.87156</v>
-          </cell>
-        </row>
-        <row r="2671">
-          <cell r="A2671">
-            <v>64</v>
-          </cell>
-          <cell r="B2671">
-            <v>0.59917399999999998</v>
-          </cell>
-          <cell r="C2671">
-            <v>0.58572000000000002</v>
-          </cell>
-          <cell r="D2671">
-            <v>0.57134240000000003</v>
-          </cell>
-          <cell r="I2671">
-            <v>64</v>
-          </cell>
-          <cell r="J2671">
-            <v>0.42499999999999999</v>
-          </cell>
-          <cell r="K2671">
-            <v>0.89153992999999998</v>
-          </cell>
-          <cell r="L2671">
-            <v>0.88315999999999995</v>
-          </cell>
-        </row>
-        <row r="2672">
-          <cell r="A2672">
-            <v>65</v>
-          </cell>
-          <cell r="B2672">
-            <v>0.60416820000000004</v>
-          </cell>
-          <cell r="C2672">
-            <v>0.58942700000000003</v>
-          </cell>
-          <cell r="D2672">
-            <v>0.57540740000000001</v>
-          </cell>
-          <cell r="I2672">
-            <v>65</v>
-          </cell>
-          <cell r="J2672">
-            <v>0.42499999999999999</v>
-          </cell>
-          <cell r="K2672">
-            <v>0.90354769999999995</v>
-          </cell>
-          <cell r="L2672">
-            <v>0.89434000000000002</v>
-          </cell>
-        </row>
-        <row r="2673">
-          <cell r="A2673">
-            <v>66</v>
-          </cell>
-          <cell r="B2673">
-            <v>0.60908399999999996</v>
-          </cell>
-          <cell r="C2673">
-            <v>0.59338999999999997</v>
-          </cell>
-          <cell r="D2673">
-            <v>0.57939916000000002</v>
-          </cell>
-          <cell r="I2673">
-            <v>66</v>
-          </cell>
-          <cell r="J2673">
-            <v>0.42499999999999999</v>
-          </cell>
-          <cell r="K2673">
-            <v>0.91544300000000001</v>
-          </cell>
-          <cell r="L2673">
-            <v>0.90581255999999999</v>
-          </cell>
-        </row>
-        <row r="2674">
-          <cell r="A2674">
-            <v>67</v>
-          </cell>
-          <cell r="B2674">
-            <v>0.61405900000000002</v>
-          </cell>
-          <cell r="C2674">
-            <v>0.59745899999999996</v>
-          </cell>
-          <cell r="D2674">
-            <v>0.58346575000000001</v>
-          </cell>
-          <cell r="I2674">
-            <v>67</v>
-          </cell>
-          <cell r="J2674">
-            <v>0.4254</v>
-          </cell>
-          <cell r="K2674">
-            <v>0.92760103940000005</v>
-          </cell>
-          <cell r="L2674">
-            <v>0.91705000000000003</v>
-          </cell>
-        </row>
-        <row r="2675">
-          <cell r="A2675">
-            <v>68</v>
-          </cell>
-          <cell r="B2675">
-            <v>0.619058</v>
-          </cell>
-          <cell r="C2675">
-            <v>0.60119</v>
-          </cell>
-          <cell r="D2675">
-            <v>0.58746520000000002</v>
-          </cell>
-          <cell r="I2675">
-            <v>68</v>
-          </cell>
-          <cell r="J2675">
-            <v>0.42499999999999999</v>
-          </cell>
-          <cell r="K2675">
-            <v>0.93957327999999996</v>
-          </cell>
-          <cell r="L2675">
-            <v>0.92871999999999999</v>
-          </cell>
-        </row>
-        <row r="2676">
-          <cell r="A2676">
-            <v>69</v>
-          </cell>
-          <cell r="B2676">
-            <v>0.62414700000000001</v>
-          </cell>
-          <cell r="C2676">
-            <v>0.60601499999999997</v>
-          </cell>
-          <cell r="D2676">
-            <v>0.59129790000000004</v>
-          </cell>
-          <cell r="I2676">
-            <v>69</v>
-          </cell>
-          <cell r="J2676">
-            <v>0.42570000000000002</v>
-          </cell>
-          <cell r="K2676">
-            <v>0.95184557999999997</v>
-          </cell>
-          <cell r="L2676">
-            <v>0.94032000000000004</v>
-          </cell>
-        </row>
-        <row r="2677">
-          <cell r="A2677">
-            <v>70</v>
-          </cell>
-          <cell r="B2677">
-            <v>0.62928300000000004</v>
-          </cell>
-          <cell r="C2677">
-            <v>0.610178</v>
-          </cell>
-          <cell r="D2677">
-            <v>0.59547099999999997</v>
-          </cell>
-          <cell r="I2677">
-            <v>70</v>
-          </cell>
-          <cell r="J2677">
-            <v>0.42620000000000002</v>
-          </cell>
-          <cell r="K2677">
-            <v>0.96388971000000001</v>
-          </cell>
-          <cell r="L2677">
-            <v>0.95242000000000004</v>
-          </cell>
-        </row>
-        <row r="2678">
-          <cell r="A2678">
-            <v>71</v>
-          </cell>
-          <cell r="B2678">
-            <v>0.63439699999999999</v>
-          </cell>
-          <cell r="C2678">
-            <v>0.61430700000000005</v>
-          </cell>
-          <cell r="D2678">
-            <v>0.59930289999999997</v>
-          </cell>
-          <cell r="I2678">
-            <v>71</v>
-          </cell>
-          <cell r="J2678">
-            <v>0.42654999999999998</v>
-          </cell>
-          <cell r="K2678">
-            <v>0.97588412999999996</v>
-          </cell>
-          <cell r="L2678">
-            <v>0.96416999999999997</v>
-          </cell>
-        </row>
-        <row r="2679">
-          <cell r="A2679">
-            <v>72</v>
-          </cell>
-          <cell r="B2679">
-            <v>0.63959999999999995</v>
-          </cell>
-          <cell r="C2679">
-            <v>0.61802000000000001</v>
-          </cell>
-          <cell r="D2679">
-            <v>0.60350700000000002</v>
-          </cell>
-          <cell r="I2679">
-            <v>72</v>
-          </cell>
-          <cell r="J2679">
-            <v>0.42709999999999998</v>
-          </cell>
-          <cell r="K2679">
-            <v>0.98826420000000004</v>
-          </cell>
-          <cell r="L2679">
-            <v>0.97582000000000002</v>
-          </cell>
-        </row>
-        <row r="2680">
-          <cell r="A2680">
-            <v>73</v>
-          </cell>
-          <cell r="B2680">
-            <v>0.64483999999999997</v>
-          </cell>
-          <cell r="C2680">
-            <v>0.621726</v>
-          </cell>
-          <cell r="D2680">
-            <v>0.60744799999999999</v>
-          </cell>
-          <cell r="I2680">
-            <v>73</v>
-          </cell>
-          <cell r="J2680">
-            <v>0.42726999999999998</v>
-          </cell>
-          <cell r="K2680">
-            <v>1.0003618000000001</v>
-          </cell>
-          <cell r="L2680">
-            <v>0.98709000000000002</v>
-          </cell>
-        </row>
-        <row r="2681">
-          <cell r="A2681">
-            <v>74</v>
-          </cell>
-          <cell r="B2681">
-            <v>0.65010005000000004</v>
-          </cell>
-          <cell r="C2681">
-            <v>0.62545499999999998</v>
-          </cell>
-          <cell r="D2681">
-            <v>0.61131100000000005</v>
-          </cell>
-          <cell r="I2681">
-            <v>74</v>
-          </cell>
-          <cell r="J2681">
-            <v>0.43159999999999998</v>
-          </cell>
-          <cell r="K2681">
-            <v>1.0121869999999999</v>
-          </cell>
-          <cell r="L2681">
-            <v>0.99858100000000005</v>
-          </cell>
-        </row>
-        <row r="2682">
-          <cell r="A2682">
-            <v>75</v>
-          </cell>
-          <cell r="B2682">
-            <v>0.65536399999999995</v>
-          </cell>
-          <cell r="C2682">
-            <v>0.62919000000000003</v>
-          </cell>
-          <cell r="D2682">
-            <v>0.61527810000000005</v>
-          </cell>
-          <cell r="I2682">
-            <v>75</v>
-          </cell>
-          <cell r="J2682">
-            <v>0.43209999999999998</v>
-          </cell>
-          <cell r="K2682">
-            <v>1.02363121509</v>
-          </cell>
-          <cell r="L2682">
-            <v>1.0102199999999999</v>
-          </cell>
-        </row>
-        <row r="2683">
-          <cell r="A2683">
-            <v>76</v>
-          </cell>
-          <cell r="B2683">
-            <v>0.66064129999999999</v>
-          </cell>
-          <cell r="C2683">
-            <v>0.63292000000000004</v>
-          </cell>
-          <cell r="D2683">
-            <v>0.61941900000000005</v>
-          </cell>
-          <cell r="I2683">
-            <v>76</v>
-          </cell>
-          <cell r="J2683">
-            <v>0.43369999999999997</v>
-          </cell>
-          <cell r="K2683">
-            <v>1.0357416800000001</v>
-          </cell>
-          <cell r="L2683">
-            <v>1.02182</v>
-          </cell>
-        </row>
-        <row r="2684">
-          <cell r="A2684">
-            <v>77</v>
-          </cell>
-          <cell r="B2684">
-            <v>0.66605300000000001</v>
-          </cell>
-          <cell r="C2684">
-            <v>0.63666400000000001</v>
-          </cell>
-          <cell r="D2684">
-            <v>0.623336</v>
-          </cell>
-          <cell r="I2684">
-            <v>77</v>
-          </cell>
-          <cell r="J2684">
-            <v>0.44030000000000002</v>
-          </cell>
-          <cell r="K2684">
-            <v>1.04722118</v>
-          </cell>
-          <cell r="L2684">
-            <v>1.03331</v>
-          </cell>
-        </row>
-        <row r="2685">
-          <cell r="A2685">
-            <v>78</v>
-          </cell>
-          <cell r="B2685">
-            <v>0.67143699999999995</v>
-          </cell>
-          <cell r="C2685">
-            <v>0.64041999999999999</v>
-          </cell>
-          <cell r="D2685">
-            <v>0.62754200000000004</v>
-          </cell>
-          <cell r="I2685">
-            <v>78</v>
-          </cell>
-          <cell r="J2685">
-            <v>0.44</v>
-          </cell>
-          <cell r="K2685">
-            <v>1.0593429999999999</v>
-          </cell>
-          <cell r="L2685">
-            <v>1.0446329999999999</v>
-          </cell>
-        </row>
-        <row r="2686">
-          <cell r="A2686">
-            <v>79</v>
-          </cell>
-          <cell r="B2686">
-            <v>0.67688800000000005</v>
-          </cell>
-          <cell r="C2686">
-            <v>0.64417020000000003</v>
-          </cell>
-          <cell r="D2686">
-            <v>0.63151000000000002</v>
-          </cell>
-          <cell r="I2686">
-            <v>79</v>
-          </cell>
-          <cell r="J2686">
-            <v>0.44</v>
-          </cell>
-          <cell r="K2686">
-            <v>1.0707739590000001</v>
-          </cell>
-          <cell r="L2686">
-            <v>1.0559499999999999</v>
-          </cell>
-        </row>
-        <row r="2687">
-          <cell r="A2687">
-            <v>80</v>
-          </cell>
-          <cell r="B2687">
-            <v>0.68234799999999995</v>
-          </cell>
-          <cell r="C2687">
-            <v>0.64792000000000005</v>
-          </cell>
-          <cell r="D2687">
-            <v>0.63553300000000001</v>
-          </cell>
-          <cell r="I2687">
-            <v>80</v>
-          </cell>
-          <cell r="J2687">
-            <v>0.441</v>
-          </cell>
-          <cell r="K2687">
-            <v>1.08238232</v>
-          </cell>
-          <cell r="L2687">
-            <v>1.0673299999999999</v>
-          </cell>
-        </row>
-        <row r="2688">
-          <cell r="A2688">
-            <v>81</v>
-          </cell>
-          <cell r="B2688">
-            <v>0.68786400000000003</v>
-          </cell>
-          <cell r="C2688">
-            <v>0.65168999999999999</v>
-          </cell>
-          <cell r="D2688">
-            <v>0.63980800000000004</v>
-          </cell>
-          <cell r="I2688">
-            <v>81</v>
-          </cell>
-          <cell r="J2688">
-            <v>0.441</v>
-          </cell>
-          <cell r="K2688">
-            <v>1.094224214</v>
-          </cell>
-          <cell r="L2688">
-            <v>1.078368</v>
-          </cell>
-        </row>
-        <row r="2689">
-          <cell r="A2689">
-            <v>82</v>
-          </cell>
-          <cell r="B2689">
-            <v>0.69344099999999997</v>
-          </cell>
-          <cell r="C2689">
-            <v>0.6554799</v>
-          </cell>
-          <cell r="D2689">
-            <v>0.64384478000000001</v>
-          </cell>
-          <cell r="I2689">
-            <v>82</v>
-          </cell>
-          <cell r="J2689">
-            <v>0.44130000000000003</v>
-          </cell>
-          <cell r="K2689">
-            <v>1.10632693</v>
-          </cell>
-          <cell r="L2689">
-            <v>1.0898699999999999</v>
-          </cell>
-        </row>
-        <row r="2690">
-          <cell r="A2690">
-            <v>83</v>
-          </cell>
-          <cell r="B2690">
-            <v>0.69898700000000002</v>
-          </cell>
-          <cell r="C2690">
-            <v>0.65927199999999997</v>
-          </cell>
-          <cell r="D2690">
-            <v>0.64789799999999997</v>
-          </cell>
-          <cell r="I2690">
-            <v>83</v>
-          </cell>
-          <cell r="J2690">
-            <v>0.44128000000000001</v>
-          </cell>
-          <cell r="K2690">
-            <v>1.11805891</v>
-          </cell>
-          <cell r="L2690">
-            <v>1.10148</v>
-          </cell>
-        </row>
-        <row r="2691">
-          <cell r="A2691">
-            <v>84</v>
-          </cell>
-          <cell r="B2691">
-            <v>0.704623</v>
-          </cell>
-          <cell r="C2691">
-            <v>0.66308</v>
-          </cell>
-          <cell r="D2691">
-            <v>0.65216605999999999</v>
-          </cell>
-          <cell r="I2691">
-            <v>84</v>
-          </cell>
-          <cell r="J2691">
-            <v>0.4415</v>
-          </cell>
-          <cell r="K2691">
-            <v>1.1292476600000001</v>
-          </cell>
-          <cell r="L2691">
-            <v>1.1132280000000001</v>
-          </cell>
-        </row>
-        <row r="2692">
-          <cell r="A2692">
-            <v>85</v>
-          </cell>
-          <cell r="B2692">
-            <v>0.71027269999999998</v>
-          </cell>
-          <cell r="C2692">
-            <v>0.66691319999999998</v>
-          </cell>
-          <cell r="D2692">
-            <v>0.65637500000000004</v>
-          </cell>
-          <cell r="I2692">
-            <v>85</v>
-          </cell>
-          <cell r="J2692">
-            <v>0.44219999999999998</v>
-          </cell>
-          <cell r="K2692">
-            <v>1.14120507</v>
-          </cell>
-          <cell r="L2692">
-            <v>1.1247354000000001</v>
-          </cell>
-        </row>
-        <row r="2693">
-          <cell r="A2693">
-            <v>86</v>
-          </cell>
-          <cell r="B2693">
-            <v>0.71596099999999996</v>
-          </cell>
-          <cell r="C2693">
-            <v>0.67074999999999996</v>
-          </cell>
-          <cell r="D2693">
-            <v>0.66035999999999995</v>
-          </cell>
-          <cell r="I2693">
-            <v>86</v>
-          </cell>
-          <cell r="J2693">
-            <v>0.44219999999999998</v>
-          </cell>
-          <cell r="K2693">
-            <v>1.15260958</v>
-          </cell>
-          <cell r="L2693">
-            <v>1.1359600000000001</v>
-          </cell>
-        </row>
-        <row r="2694">
-          <cell r="A2694">
-            <v>87</v>
-          </cell>
-          <cell r="B2694">
-            <v>0.72166200000000003</v>
-          </cell>
-          <cell r="C2694">
-            <v>0.67462</v>
-          </cell>
-          <cell r="D2694">
-            <v>0.66475099999999998</v>
-          </cell>
-          <cell r="I2694">
-            <v>87</v>
-          </cell>
-          <cell r="J2694">
-            <v>0.44240000000000002</v>
-          </cell>
-          <cell r="K2694">
-            <v>1.16437458</v>
-          </cell>
-          <cell r="L2694">
-            <v>1.1475150000000001</v>
-          </cell>
-        </row>
-        <row r="2695">
-          <cell r="A2695">
-            <v>88</v>
-          </cell>
-          <cell r="B2695">
-            <v>0.72738199999999997</v>
-          </cell>
-          <cell r="C2695">
-            <v>0.67851600000000001</v>
-          </cell>
-          <cell r="D2695">
-            <v>0.66902284999999995</v>
-          </cell>
-          <cell r="I2695">
-            <v>88</v>
-          </cell>
-          <cell r="J2695">
-            <v>0.44309999999999999</v>
-          </cell>
-          <cell r="K2695">
-            <v>1.1755944490000001</v>
-          </cell>
-          <cell r="L2695">
-            <v>1.1587000000000001</v>
-          </cell>
-        </row>
-        <row r="2696">
-          <cell r="A2696">
-            <v>89</v>
-          </cell>
-          <cell r="B2696">
-            <v>0.73311499999999996</v>
-          </cell>
-          <cell r="C2696">
-            <v>0.68241700000000005</v>
-          </cell>
-          <cell r="D2696">
-            <v>0.67332999999999998</v>
-          </cell>
-          <cell r="I2696">
-            <v>89</v>
-          </cell>
-          <cell r="J2696">
-            <v>0.44328000000000001</v>
-          </cell>
-          <cell r="K2696">
-            <v>1.18734574</v>
-          </cell>
-          <cell r="L2696">
-            <v>1.1698713999999999</v>
-          </cell>
-        </row>
-        <row r="2697">
-          <cell r="A2697">
-            <v>90</v>
-          </cell>
-          <cell r="B2697">
-            <v>0.73890299999999998</v>
-          </cell>
-          <cell r="C2697">
-            <v>0.68633999999999995</v>
-          </cell>
-          <cell r="D2697">
-            <v>0.67766000000000004</v>
-          </cell>
-          <cell r="I2697">
-            <v>90</v>
-          </cell>
-          <cell r="J2697">
-            <v>0.44350000000000001</v>
-          </cell>
-          <cell r="K2697">
-            <v>1.1990354000000001</v>
-          </cell>
-          <cell r="L2697">
-            <v>1.18103</v>
-          </cell>
-        </row>
-        <row r="2698">
-          <cell r="A2698">
-            <v>91</v>
-          </cell>
-          <cell r="B2698">
-            <v>0.74462600000000001</v>
-          </cell>
-          <cell r="C2698">
-            <v>0.69028299999999998</v>
-          </cell>
-          <cell r="D2698">
-            <v>0.68208168999999996</v>
-          </cell>
-          <cell r="I2698">
-            <v>91</v>
-          </cell>
-          <cell r="J2698">
-            <v>0.443</v>
-          </cell>
-          <cell r="K2698">
-            <v>1.2111083199999999</v>
-          </cell>
-          <cell r="L2698">
-            <v>1.1924999999999999</v>
-          </cell>
-        </row>
-        <row r="2699">
-          <cell r="A2699">
-            <v>92</v>
-          </cell>
-          <cell r="B2699">
-            <v>0.75037310000000002</v>
-          </cell>
-          <cell r="C2699">
-            <v>0.69429019999999997</v>
-          </cell>
-          <cell r="D2699">
-            <v>0.68652449999999998</v>
-          </cell>
-          <cell r="I2699">
-            <v>92</v>
-          </cell>
-          <cell r="J2699">
-            <v>0.44379999999999997</v>
-          </cell>
-          <cell r="K2699">
-            <v>1.2228755950000001</v>
-          </cell>
-          <cell r="L2699">
-            <v>1.2037100000000001</v>
-          </cell>
-        </row>
-        <row r="2700">
-          <cell r="A2700">
-            <v>93</v>
-          </cell>
-          <cell r="B2700">
-            <v>0.75610699999999997</v>
-          </cell>
-          <cell r="C2700">
-            <v>0.69828000000000001</v>
-          </cell>
-          <cell r="D2700">
-            <v>0.69099600000000005</v>
-          </cell>
-          <cell r="I2700">
-            <v>93</v>
-          </cell>
-          <cell r="J2700">
-            <v>0.44424999999999998</v>
-          </cell>
-          <cell r="K2700">
-            <v>1.234039664</v>
-          </cell>
-          <cell r="L2700">
-            <v>1.2150399999999999</v>
-          </cell>
-        </row>
-        <row r="2701">
-          <cell r="A2701">
-            <v>94</v>
-          </cell>
-          <cell r="B2701">
-            <v>0.76175020000000004</v>
-          </cell>
-          <cell r="C2701">
-            <v>0.70230999999999999</v>
-          </cell>
-          <cell r="D2701">
-            <v>0.69551735999999997</v>
-          </cell>
-          <cell r="I2701">
-            <v>94</v>
-          </cell>
-          <cell r="J2701">
-            <v>0.44429999999999997</v>
-          </cell>
-          <cell r="K2701">
-            <v>1.2451592600000001</v>
-          </cell>
-          <cell r="L2701">
-            <v>1.2256</v>
-          </cell>
-        </row>
-        <row r="2702">
-          <cell r="A2702">
-            <v>95</v>
-          </cell>
-          <cell r="B2702">
-            <v>0.76750269999999998</v>
-          </cell>
-          <cell r="C2702">
-            <v>0.70635000000000003</v>
-          </cell>
-          <cell r="D2702">
-            <v>0.69997200000000004</v>
-          </cell>
-          <cell r="I2702">
-            <v>95</v>
-          </cell>
-          <cell r="J2702">
-            <v>0.44440000000000002</v>
-          </cell>
-          <cell r="K2702">
-            <v>1.25643324</v>
-          </cell>
-          <cell r="L2702">
-            <v>1.2365875</v>
-          </cell>
-        </row>
-        <row r="2703">
-          <cell r="A2703">
-            <v>96</v>
-          </cell>
-          <cell r="B2703">
-            <v>0.77318189999999998</v>
-          </cell>
-          <cell r="C2703">
-            <v>0.71041699999999997</v>
-          </cell>
-          <cell r="D2703">
-            <v>0.70462400000000003</v>
-          </cell>
-          <cell r="I2703">
-            <v>96</v>
-          </cell>
-          <cell r="J2703">
-            <v>0.44400000000000001</v>
-          </cell>
-          <cell r="K2703">
-            <v>1.2673407699999999</v>
-          </cell>
-          <cell r="L2703">
-            <v>1.2477830000000001</v>
-          </cell>
-        </row>
-        <row r="2704">
-          <cell r="A2704">
-            <v>97</v>
-          </cell>
-          <cell r="B2704">
-            <v>0.77878789999999998</v>
-          </cell>
-          <cell r="C2704">
-            <v>0.71452000000000004</v>
-          </cell>
-          <cell r="D2704">
-            <v>0.70928100000000005</v>
-          </cell>
-          <cell r="I2704">
-            <v>97</v>
-          </cell>
-          <cell r="J2704">
-            <v>0.44500000000000001</v>
-          </cell>
-          <cell r="K2704">
-            <v>1.278293728</v>
-          </cell>
-          <cell r="L2704">
-            <v>1.2591600000000001</v>
-          </cell>
-        </row>
-        <row r="2705">
-          <cell r="A2705">
-            <v>98</v>
-          </cell>
-          <cell r="B2705">
-            <v>0.78434199999999998</v>
-          </cell>
-          <cell r="C2705">
-            <v>0.71865820000000002</v>
-          </cell>
-          <cell r="D2705">
-            <v>0.71397699999999997</v>
-          </cell>
-          <cell r="I2705">
-            <v>98</v>
-          </cell>
-          <cell r="J2705">
-            <v>0.44500000000000001</v>
-          </cell>
-          <cell r="K2705">
-            <v>1.2896546120000001</v>
-          </cell>
-          <cell r="L2705">
-            <v>1.2707200000000001</v>
-          </cell>
-        </row>
-        <row r="2706">
-          <cell r="A2706">
-            <v>99</v>
-          </cell>
-          <cell r="B2706">
-            <v>0.78982300000000005</v>
-          </cell>
-          <cell r="C2706">
-            <v>0.72284000000000004</v>
-          </cell>
-          <cell r="D2706">
-            <v>0.71872000000000003</v>
-          </cell>
-          <cell r="I2706">
-            <v>99</v>
-          </cell>
-          <cell r="J2706">
-            <v>0.44600000000000001</v>
-          </cell>
-          <cell r="K2706">
-            <v>1.3003716999999999</v>
-          </cell>
-          <cell r="L2706">
-            <v>1.28172</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6859,10 +7834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D36B1C-D5DF-424D-B5F6-819B116B455A}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6870,6 +7845,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.3">
@@ -6886,7 +7862,7 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6895,7 +7871,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -6944,6 +7920,15 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>684</v>
+      </c>
+      <c r="P4">
+        <v>677</v>
+      </c>
+      <c r="R4">
+        <v>696</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -6961,6 +7946,15 @@
       <c r="L5" s="1">
         <v>2</v>
       </c>
+      <c r="N5">
+        <v>687</v>
+      </c>
+      <c r="P5">
+        <v>644</v>
+      </c>
+      <c r="R5">
+        <v>695</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -6978,6 +7972,15 @@
       <c r="L6" s="1">
         <v>3</v>
       </c>
+      <c r="N6">
+        <v>685</v>
+      </c>
+      <c r="P6">
+        <v>683</v>
+      </c>
+      <c r="R6">
+        <v>677</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -6995,6 +7998,15 @@
       <c r="L7" s="1">
         <v>4</v>
       </c>
+      <c r="N7">
+        <v>685</v>
+      </c>
+      <c r="P7">
+        <v>670</v>
+      </c>
+      <c r="R7">
+        <v>693</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -7012,6 +8024,15 @@
       <c r="L8" s="1">
         <v>5</v>
       </c>
+      <c r="N8">
+        <v>683</v>
+      </c>
+      <c r="P8">
+        <v>678</v>
+      </c>
+      <c r="R8">
+        <v>689</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -7029,6 +8050,15 @@
       <c r="L9" s="1">
         <v>6</v>
       </c>
+      <c r="N9">
+        <v>680</v>
+      </c>
+      <c r="P9">
+        <v>678</v>
+      </c>
+      <c r="R9">
+        <v>692</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -7046,6 +8076,15 @@
       <c r="L10" s="1">
         <v>7</v>
       </c>
+      <c r="N10">
+        <v>690</v>
+      </c>
+      <c r="P10">
+        <v>688</v>
+      </c>
+      <c r="R10">
+        <v>684</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -7063,6 +8102,15 @@
       <c r="L11" s="1">
         <v>8</v>
       </c>
+      <c r="N11">
+        <v>671</v>
+      </c>
+      <c r="P11">
+        <v>689</v>
+      </c>
+      <c r="R11">
+        <v>674</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -7080,10 +8128,19 @@
       <c r="L12" s="1">
         <v>9</v>
       </c>
+      <c r="N12">
+        <v>689</v>
+      </c>
+      <c r="P12">
+        <v>665</v>
+      </c>
+      <c r="R12">
+        <v>669</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>10</v>
       </c>
       <c r="C13">
         <v>923</v>
@@ -7096,6 +8153,15 @@
       </c>
       <c r="L13" s="1">
         <v>10</v>
+      </c>
+      <c r="N13">
+        <v>676</v>
+      </c>
+      <c r="P13">
+        <v>663</v>
+      </c>
+      <c r="R13">
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -7116,6 +8182,18 @@
       </c>
       <c r="L14" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="N14">
+        <f>AVERAGE(N4:N13)</f>
+        <v>683</v>
+      </c>
+      <c r="P14">
+        <f>AVERAGE(P4:P13)</f>
+        <v>673.5</v>
+      </c>
+      <c r="R14">
+        <f>AVERAGE(R4:R13)</f>
+        <v>683.6</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -7141,7 +8219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -7157,8 +8235,17 @@
       <c r="L17" s="1">
         <v>1</v>
       </c>
+      <c r="N17">
+        <v>1036</v>
+      </c>
+      <c r="P17">
+        <v>1129</v>
+      </c>
+      <c r="R17">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -7174,8 +8261,17 @@
       <c r="L18" s="1">
         <v>2</v>
       </c>
+      <c r="N18">
+        <v>1029</v>
+      </c>
+      <c r="P18">
+        <v>1167</v>
+      </c>
+      <c r="R18">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -7191,8 +8287,17 @@
       <c r="L19" s="1">
         <v>3</v>
       </c>
+      <c r="N19">
+        <v>1034</v>
+      </c>
+      <c r="P19">
+        <v>1120</v>
+      </c>
+      <c r="R19">
+        <v>1077</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -7208,8 +8313,17 @@
       <c r="L20" s="1">
         <v>4</v>
       </c>
+      <c r="N20">
+        <v>1029</v>
+      </c>
+      <c r="P20">
+        <v>1228</v>
+      </c>
+      <c r="R20">
+        <v>1084</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -7225,8 +8339,17 @@
       <c r="L21" s="1">
         <v>5</v>
       </c>
+      <c r="N21">
+        <v>1019</v>
+      </c>
+      <c r="P21">
+        <v>1096</v>
+      </c>
+      <c r="R21">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -7242,8 +8365,17 @@
       <c r="L22" s="1">
         <v>6</v>
       </c>
+      <c r="N22">
+        <v>1039</v>
+      </c>
+      <c r="P22">
+        <v>1162</v>
+      </c>
+      <c r="R22">
+        <v>1051</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -7259,8 +8391,17 @@
       <c r="L23" s="1">
         <v>7</v>
       </c>
+      <c r="N23">
+        <v>1033</v>
+      </c>
+      <c r="P23">
+        <v>1143</v>
+      </c>
+      <c r="R23">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -7276,8 +8417,17 @@
       <c r="L24" s="1">
         <v>8</v>
       </c>
+      <c r="N24">
+        <v>1052</v>
+      </c>
+      <c r="P24">
+        <v>1121</v>
+      </c>
+      <c r="R24">
+        <v>1042</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -7294,8 +8444,17 @@
       <c r="L25" s="1">
         <v>9</v>
       </c>
+      <c r="N25">
+        <v>1054</v>
+      </c>
+      <c r="P25">
+        <v>1129</v>
+      </c>
+      <c r="R25">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -7312,8 +8471,17 @@
       <c r="L26" s="1">
         <v>10</v>
       </c>
+      <c r="N26">
+        <v>1031</v>
+      </c>
+      <c r="P26">
+        <v>1203</v>
+      </c>
+      <c r="R26">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -7333,12 +8501,24 @@
       <c r="L27" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="N27">
+        <f>AVERAGE(N17:N26)</f>
+        <v>1035.5999999999999</v>
+      </c>
+      <c r="P27">
+        <f>AVERAGE(P17:P26)</f>
+        <v>1149.8</v>
+      </c>
+      <c r="R27">
+        <f>AVERAGE(R17:R26)</f>
+        <v>1052.0999999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I28"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
@@ -7360,7 +8540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -7380,8 +8560,14 @@
       <c r="M30" t="s">
         <v>4</v>
       </c>
+      <c r="P30">
+        <v>1769</v>
+      </c>
+      <c r="R30">
+        <v>1572</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -7401,8 +8587,14 @@
       <c r="M31" t="s">
         <v>4</v>
       </c>
+      <c r="P31">
+        <v>1828</v>
+      </c>
+      <c r="R31">
+        <v>1617</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -7422,8 +8614,14 @@
       <c r="M32" t="s">
         <v>4</v>
       </c>
+      <c r="P32">
+        <v>1822</v>
+      </c>
+      <c r="R32">
+        <v>1569</v>
+      </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -7442,8 +8640,14 @@
       <c r="M33" t="s">
         <v>4</v>
       </c>
+      <c r="P33">
+        <v>1819</v>
+      </c>
+      <c r="R33">
+        <v>1680</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -7462,8 +8666,14 @@
       <c r="M34" t="s">
         <v>4</v>
       </c>
+      <c r="P34">
+        <v>1819</v>
+      </c>
+      <c r="R34">
+        <v>1642</v>
+      </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -7482,8 +8692,14 @@
       <c r="M35" t="s">
         <v>4</v>
       </c>
+      <c r="P35">
+        <v>1840</v>
+      </c>
+      <c r="R35">
+        <v>1647</v>
+      </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -7502,8 +8718,14 @@
       <c r="M36" t="s">
         <v>4</v>
       </c>
+      <c r="P36">
+        <v>1631</v>
+      </c>
+      <c r="R36">
+        <v>1598</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -7522,8 +8744,14 @@
       <c r="M37" t="s">
         <v>4</v>
       </c>
+      <c r="P37">
+        <v>1737</v>
+      </c>
+      <c r="R37">
+        <v>1637</v>
+      </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -7542,8 +8770,14 @@
       <c r="M38" t="s">
         <v>4</v>
       </c>
+      <c r="P38">
+        <v>1748</v>
+      </c>
+      <c r="R38">
+        <v>1598</v>
+      </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -7562,8 +8796,14 @@
       <c r="M39" t="s">
         <v>4</v>
       </c>
+      <c r="P39">
+        <v>1795</v>
+      </c>
+      <c r="R39">
+        <v>1623</v>
+      </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -7578,11 +8818,19 @@
       <c r="L40" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="P40">
+        <f>AVERAGE(P30:P39)</f>
+        <v>1780.8</v>
+      </c>
+      <c r="R40">
+        <f>AVERAGE(R30:R39)</f>
+        <v>1618.3</v>
+      </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
@@ -7602,7 +8850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -7621,8 +8869,14 @@
       <c r="M43" t="s">
         <v>4</v>
       </c>
+      <c r="P43">
+        <v>2440</v>
+      </c>
+      <c r="R43">
+        <v>2117</v>
+      </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -7641,8 +8895,14 @@
       <c r="M44" t="s">
         <v>4</v>
       </c>
+      <c r="P44">
+        <v>2354</v>
+      </c>
+      <c r="R44">
+        <v>2201</v>
+      </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -7661,8 +8921,14 @@
       <c r="M45" t="s">
         <v>4</v>
       </c>
+      <c r="P45">
+        <v>2364</v>
+      </c>
+      <c r="R45">
+        <v>2157</v>
+      </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -7681,8 +8947,14 @@
       <c r="M46" t="s">
         <v>4</v>
       </c>
+      <c r="P46">
+        <v>2324</v>
+      </c>
+      <c r="R46">
+        <v>2152</v>
+      </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -7701,8 +8973,14 @@
       <c r="M47" t="s">
         <v>4</v>
       </c>
+      <c r="P47">
+        <v>2405</v>
+      </c>
+      <c r="R47">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -7721,8 +8999,14 @@
       <c r="M48" t="s">
         <v>4</v>
       </c>
+      <c r="P48">
+        <v>2280</v>
+      </c>
+      <c r="R48">
+        <v>2199</v>
+      </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7</v>
       </c>
@@ -7741,8 +9025,14 @@
       <c r="M49" t="s">
         <v>4</v>
       </c>
+      <c r="P49">
+        <v>2301</v>
+      </c>
+      <c r="R49">
+        <v>2181</v>
+      </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>8</v>
       </c>
@@ -7761,8 +9051,14 @@
       <c r="M50" t="s">
         <v>4</v>
       </c>
+      <c r="P50">
+        <v>2296</v>
+      </c>
+      <c r="R50">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>9</v>
       </c>
@@ -7781,8 +9077,14 @@
       <c r="M51" t="s">
         <v>4</v>
       </c>
+      <c r="P51">
+        <v>2349</v>
+      </c>
+      <c r="R51">
+        <v>2189</v>
+      </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>10</v>
       </c>
@@ -7801,8 +9103,14 @@
       <c r="M52" t="s">
         <v>4</v>
       </c>
+      <c r="P52">
+        <v>2431</v>
+      </c>
+      <c r="R52">
+        <v>2268</v>
+      </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -7817,11 +9125,19 @@
       <c r="L53" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="P53">
+        <f>AVERAGE(P43:P52)</f>
+        <v>2354.4</v>
+      </c>
+      <c r="R53">
+        <f>AVERAGE(R43:R52)</f>
+        <v>2198.1999999999998</v>
+      </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L54" s="1"/>
     </row>
-    <row r="57" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -7830,21 +9146,31 @@
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>21</v>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59">
         <v>912.3</v>
@@ -7855,10 +9181,22 @@
       <c r="F59">
         <v>912.2</v>
       </c>
+      <c r="N59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59">
+        <v>683</v>
+      </c>
+      <c r="P59">
+        <v>673.5</v>
+      </c>
+      <c r="Q59">
+        <v>683.6</v>
+      </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60">
         <v>1210.0999999999999</v>
@@ -7869,11 +9207,22 @@
       <c r="F60">
         <v>1475.7</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O60">
+        <v>1035.5999999999999</v>
+      </c>
+      <c r="P60">
+        <v>1149.8</v>
+      </c>
+      <c r="Q60">
+        <v>1052.0999999999999</v>
+      </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E61">
         <v>2326.3000000000002</v>
@@ -7881,10 +9230,19 @@
       <c r="F61">
         <v>2489.6</v>
       </c>
+      <c r="N61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P61">
+        <v>1780.8</v>
+      </c>
+      <c r="Q61">
+        <v>1618.3</v>
+      </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8">
@@ -7893,33 +9251,61 @@
       <c r="F62" s="8">
         <v>3387.3</v>
       </c>
+      <c r="N62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62">
+        <v>2354.4</v>
+      </c>
+      <c r="Q62">
+        <v>2198.1999999999998</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
+      <c r="P79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>1</v>
       </c>
@@ -7932,8 +9318,21 @@
       <c r="E80">
         <v>0.13281651</v>
       </c>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0.12842339999999999</v>
+      </c>
+      <c r="S80">
+        <v>0.11972379</v>
+      </c>
+      <c r="T80">
+        <v>0.21503885</v>
+      </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>2</v>
       </c>
@@ -7946,8 +9345,21 @@
       <c r="E81" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1">
+        <v>2</v>
+      </c>
+      <c r="R81" s="7">
+        <v>1.1954176E-7</v>
+      </c>
+      <c r="S81" s="7">
+        <v>1.1928015999999999E-7</v>
+      </c>
+      <c r="T81" s="7">
+        <v>2.2514799000000001E-4</v>
+      </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>3</v>
       </c>
@@ -7964,8 +9376,21 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1">
+        <v>3</v>
+      </c>
+      <c r="R82" s="7">
+        <v>1.1923667500000001E-7</v>
+      </c>
+      <c r="S82" s="7">
+        <v>1.1927801E-7</v>
+      </c>
+      <c r="T82" s="7">
+        <v>1.1936003999999999E-7</v>
+      </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>4</v>
       </c>
@@ -7978,8 +9403,21 @@
       <c r="E83" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1">
+        <v>4</v>
+      </c>
+      <c r="R83" s="7">
+        <v>1.1924824000000001E-7</v>
+      </c>
+      <c r="S83" s="7">
+        <v>1.1927771E-7</v>
+      </c>
+      <c r="T83" s="7">
+        <v>1.1935721E-7</v>
+      </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>5</v>
       </c>
@@ -7992,8 +9430,21 @@
       <c r="E84" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1">
+        <v>5</v>
+      </c>
+      <c r="R84" s="7">
+        <v>1.1926181E-7</v>
+      </c>
+      <c r="S84" s="7">
+        <v>1.1927659999999999E-7</v>
+      </c>
+      <c r="T84" s="7">
+        <v>1.1935458000000001E-7</v>
+      </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>6</v>
       </c>
@@ -8006,8 +9457,21 @@
       <c r="E85" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1">
+        <v>6</v>
+      </c>
+      <c r="R85" s="7">
+        <v>1.1922464E-7</v>
+      </c>
+      <c r="S85" s="7">
+        <v>1.1927577E-7</v>
+      </c>
+      <c r="T85" s="7">
+        <v>1.1935158000000001E-7</v>
+      </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>7</v>
       </c>
@@ -8020,8 +9484,21 @@
       <c r="E86" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1">
+        <v>7</v>
+      </c>
+      <c r="R86" s="7">
+        <v>1.1923790999999999E-7</v>
+      </c>
+      <c r="S86" s="7">
+        <v>1.1924789999999999E-7</v>
+      </c>
+      <c r="T86" s="7">
+        <v>1.1934833E-7</v>
+      </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>8</v>
       </c>
@@ -8034,8 +9511,21 @@
       <c r="E87" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1">
+        <v>8</v>
+      </c>
+      <c r="R87" s="7">
+        <v>1.1933552000000001E-7</v>
+      </c>
+      <c r="S87" s="7">
+        <v>1.1927304E-7</v>
+      </c>
+      <c r="T87" s="7">
+        <v>1.1934499999999999E-7</v>
+      </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>9</v>
       </c>
@@ -8048,8 +9538,21 @@
       <c r="E88" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1">
+        <v>9</v>
+      </c>
+      <c r="R88" s="7">
+        <v>1.1932447E-7</v>
+      </c>
+      <c r="S88" s="7">
+        <v>1.1927304E-7</v>
+      </c>
+      <c r="T88" s="7">
+        <v>1.1934154000000001E-7</v>
+      </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>10</v>
       </c>
@@ -8062,23 +9565,48 @@
       <c r="E89" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1">
+        <v>10</v>
+      </c>
+      <c r="R89" s="7">
+        <v>1.1915604E-7</v>
+      </c>
+      <c r="S89" s="7">
+        <v>1.1927023E-7</v>
+      </c>
+      <c r="T89" s="7">
+        <v>1.1933417000000001E-7</v>
+      </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="P91" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>1</v>
       </c>
@@ -8088,8 +9616,21 @@
       <c r="D92" s="7">
         <v>8.9455209999999993E-2</v>
       </c>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1">
+        <v>1</v>
+      </c>
+      <c r="R92" s="7">
+        <v>4.1469399999999998</v>
+      </c>
+      <c r="S92" s="7">
+        <v>0.98076240000000003</v>
+      </c>
+      <c r="U92" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>2</v>
       </c>
@@ -8099,8 +9640,18 @@
       <c r="D93" s="7">
         <v>1.1921416E-7</v>
       </c>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1">
+        <v>2</v>
+      </c>
+      <c r="R93" s="7">
+        <v>4.0508730000000002</v>
+      </c>
+      <c r="S93" s="7">
+        <v>2.6502695E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>3</v>
       </c>
@@ -8110,8 +9661,18 @@
       <c r="D94" s="7">
         <v>1.1921415000000001E-7</v>
       </c>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1">
+        <v>3</v>
+      </c>
+      <c r="R94" s="7">
+        <v>4.0455360000000002</v>
+      </c>
+      <c r="S94" s="7">
+        <v>1.0889061E-2</v>
+      </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>4</v>
       </c>
@@ -8121,8 +9682,18 @@
       <c r="D95" s="7">
         <v>1.1921415000000001E-7</v>
       </c>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1">
+        <v>4</v>
+      </c>
+      <c r="R95" s="7">
+        <v>4.0775585000000003</v>
+      </c>
+      <c r="S95" s="7">
+        <v>1.0759374E-2</v>
+      </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>5</v>
       </c>
@@ -8132,8 +9703,18 @@
       <c r="D96" s="7">
         <v>1.1921415000000001E-7</v>
       </c>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1">
+        <v>5</v>
+      </c>
+      <c r="R96" s="7">
+        <v>4.0668829999999998</v>
+      </c>
+      <c r="S96" s="7">
+        <v>1.6743540000000001E-2</v>
+      </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>6</v>
       </c>
@@ -8143,8 +9724,18 @@
       <c r="D97" s="7">
         <v>1.1921415000000001E-7</v>
       </c>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1">
+        <v>6</v>
+      </c>
+      <c r="R97" s="7">
+        <v>4.0615462999999998</v>
+      </c>
+      <c r="S97" s="7">
+        <v>1.0674352999999999E-2</v>
+      </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>7</v>
       </c>
@@ -8154,8 +9745,18 @@
       <c r="D98" s="7">
         <v>1.1921409999999999E-7</v>
       </c>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1">
+        <v>7</v>
+      </c>
+      <c r="R98" s="7">
+        <v>4.0455356</v>
+      </c>
+      <c r="S98" s="7">
+        <v>1.0674355E-2</v>
+      </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B99" s="1">
         <v>8</v>
       </c>
@@ -8165,8 +9766,18 @@
       <c r="D99" s="7">
         <v>1.1921408E-7</v>
       </c>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1">
+        <v>8</v>
+      </c>
+      <c r="R99" s="7">
+        <v>4.0455356</v>
+      </c>
+      <c r="S99" s="7">
+        <v>1.0674535400000001E-2</v>
+      </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
         <v>9</v>
       </c>
@@ -8176,8 +9787,18 @@
       <c r="D100" s="7">
         <v>1.1921409000000001E-7</v>
       </c>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1">
+        <v>9</v>
+      </c>
+      <c r="R100" s="7">
+        <v>4.0455360000000002</v>
+      </c>
+      <c r="S100" s="7">
+        <v>1.0674355E-2</v>
+      </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
         <v>10</v>
       </c>
@@ -8187,9 +9808,21 @@
       <c r="D101" s="7">
         <v>1.1921409000000001E-7</v>
       </c>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1">
+        <v>10</v>
+      </c>
+      <c r="R101" s="7">
+        <v>4.0668844999999996</v>
+      </c>
+      <c r="S101" s="7">
+        <v>1.06974353E-2</v>
+      </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
